--- a/Scrum Status Form SegFault.xlsx
+++ b/Scrum Status Form SegFault.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duncan.adam18\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duncan.adam18\Documents\final\cis_2017-Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004AD0C5-6C6B-4826-975F-52867A5E6FBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA11D5B-9885-474D-A4E8-C1D6A971443A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{5969DE55-CD1B-4C6F-87B5-39DBF0EA983E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{5969DE55-CD1B-4C6F-87B5-39DBF0EA983E}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="64">
   <si>
     <t>Scrum Reporting Form</t>
   </si>
@@ -210,6 +210,21 @@
   </si>
   <si>
     <t>Adam Duncan</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Bella</t>
+  </si>
+  <si>
+    <t>Design initial sprites</t>
+  </si>
+  <si>
+    <t>Begin developing core game concepts</t>
+  </si>
+  <si>
+    <t>Design game balance</t>
   </si>
 </sst>
 </file>
@@ -942,7 +957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA0DA6C-A5EB-451E-A9B2-73656B28F8F2}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1213,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DDC301-48E9-474C-9B8D-1FA90964021A}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,7 +1376,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
@@ -1369,7 +1384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f>'17 Nov'!B31</f>
         <v>All</v>
@@ -1382,8 +1397,11 @@
         <f>'17 Nov'!D31</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f>'17 Nov'!B32</f>
         <v xml:space="preserve">Jessica </v>
@@ -1396,8 +1414,11 @@
         <f>'17 Nov'!D32</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f>'17 Nov'!B33</f>
         <v>Adam/Iszabella</v>
@@ -1410,11 +1431,14 @@
         <f>'17 Nov'!D33</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>9</v>
       </c>
@@ -1423,7 +1447,7 @@
         <v>45260</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>10</v>
       </c>
@@ -1431,37 +1455,46 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>28</v>
+        <v>63</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1636,43 +1669,43 @@
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f>'28 Nov'!B31</f>
-        <v>TBA</v>
+        <v>Jessica</v>
       </c>
       <c r="C18" t="str">
         <f>'28 Nov'!C31</f>
-        <v>To Be Determined</v>
-      </c>
-      <c r="D18" s="1" t="str">
+        <v>Design initial sprites</v>
+      </c>
+      <c r="D18" s="1">
         <f>'28 Nov'!D31</f>
-        <v>?</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f>'28 Nov'!B32</f>
-        <v>TBA</v>
+        <v>Adam</v>
       </c>
       <c r="C19" t="str">
         <f>'28 Nov'!C32</f>
-        <v>To Be Determined</v>
-      </c>
-      <c r="D19" s="1" t="str">
+        <v>Begin developing core game concepts</v>
+      </c>
+      <c r="D19" s="1">
         <f>'28 Nov'!D32</f>
-        <v>?</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f>'28 Nov'!B33</f>
-        <v>TBA</v>
+        <v>Bella</v>
       </c>
       <c r="C20" t="str">
         <f>'28 Nov'!C33</f>
-        <v>To Be Determined</v>
-      </c>
-      <c r="D20" s="1" t="str">
+        <v>Design game balance</v>
+      </c>
+      <c r="D20" s="1">
         <f>'28 Nov'!D33</f>
-        <v>?</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
@@ -2152,7 +2185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8735962-B793-4062-AE35-D28323021671}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2552,7 +2585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184B6CC2-E414-4E52-936B-7C04C3571020}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/Scrum Status Form SegFault.xlsx
+++ b/Scrum Status Form SegFault.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duncan.adam18\Documents\final\cis_2017-Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA11D5B-9885-474D-A4E8-C1D6A971443A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234B3762-D6F3-4510-B86A-5DFD01B65958}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{5969DE55-CD1B-4C6F-87B5-39DBF0EA983E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{5969DE55-CD1B-4C6F-87B5-39DBF0EA983E}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="70">
   <si>
     <t>Scrum Reporting Form</t>
   </si>
@@ -113,15 +113,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>TBA</t>
-  </si>
-  <si>
-    <t>To Be Determined</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Identify major parts of the project</t>
   </si>
   <si>
@@ -225,6 +216,33 @@
   </si>
   <si>
     <t>Design game balance</t>
+  </si>
+  <si>
+    <t>Begin programming</t>
+  </si>
+  <si>
+    <t>Design placeholder sprites</t>
+  </si>
+  <si>
+    <t>Not started</t>
+  </si>
+  <si>
+    <t>~75% Complete</t>
+  </si>
+  <si>
+    <t>POSTPONED TO DEC 5 (Team memeber  MIA)</t>
+  </si>
+  <si>
+    <t>~80% Complete</t>
+  </si>
+  <si>
+    <t>Refine Sprites/Design Backgrounds</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>Finish core game concepts/Begin work on sprite rendering</t>
   </si>
 </sst>
 </file>
@@ -741,7 +759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4BDE91-026E-42C1-9643-D39E9BFB7C68}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -780,7 +798,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -788,7 +806,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -796,7 +814,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -815,7 +833,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -859,7 +877,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -870,7 +888,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
@@ -879,10 +897,10 @@
     <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
@@ -957,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA0DA6C-A5EB-451E-A9B2-73656B28F8F2}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,7 +1035,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1025,7 +1043,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1033,7 +1051,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1052,42 +1070,42 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1126,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -1143,12 +1161,12 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C20" t="str">
         <f>Cover!C20</f>
@@ -1159,7 +1177,7 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -1195,10 +1213,10 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
@@ -1206,10 +1224,10 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D33" s="1">
         <v>3</v>
@@ -1228,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DDC301-48E9-474C-9B8D-1FA90964021A}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,7 +1306,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1296,7 +1314,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1304,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1323,42 +1341,42 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1398,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -1406,16 +1424,15 @@
         <f>'17 Nov'!B32</f>
         <v xml:space="preserve">Jessica </v>
       </c>
-      <c r="C19" t="str">
-        <f>'17 Nov'!C32</f>
-        <v>Create Sprites</v>
+      <c r="C19" t="s">
+        <v>62</v>
       </c>
       <c r="D19">
         <f>'17 Nov'!D32</f>
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -1423,16 +1440,15 @@
         <f>'17 Nov'!B33</f>
         <v>Adam/Iszabella</v>
       </c>
-      <c r="C20" t="str">
-        <f>'17 Nov'!C33</f>
-        <v>Complete Programming</v>
+      <c r="C20" t="s">
+        <v>61</v>
       </c>
       <c r="D20">
         <f>'17 Nov'!D33</f>
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -1457,44 +1473,44 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D31" s="1">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
         <v>60</v>
-      </c>
-      <c r="C33" t="s">
-        <v>63</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1510,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50F7190-C596-42CC-8496-9A58A8133598}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,7 +1586,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1578,7 +1594,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1586,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1605,42 +1621,42 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1658,7 +1674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
@@ -1666,7 +1682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f>'28 Nov'!B31</f>
         <v>Jessica</v>
@@ -1679,8 +1695,11 @@
         <f>'28 Nov'!D31</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f>'28 Nov'!B32</f>
         <v>Adam</v>
@@ -1693,8 +1712,11 @@
         <f>'28 Nov'!D32</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f>'28 Nov'!B33</f>
         <v>Bella</v>
@@ -1707,8 +1729,11 @@
         <f>'28 Nov'!D33</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>9</v>
       </c>
@@ -1717,7 +1742,7 @@
         <v>45265</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>10</v>
       </c>
@@ -1725,37 +1750,46 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>28</v>
+        <v>60</v>
+      </c>
+      <c r="D33" s="1">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1831,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1839,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1847,7 +1881,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1866,42 +1900,42 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1930,43 +1964,43 @@
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f>'30 Nov'!B31</f>
-        <v>TBA</v>
+        <v>Jessica</v>
       </c>
       <c r="C18" t="str">
         <f>'30 Nov'!C31</f>
-        <v>To Be Determined</v>
-      </c>
-      <c r="D18" s="1" t="str">
+        <v>Refine Sprites/Design Backgrounds</v>
+      </c>
+      <c r="D18" s="1">
         <f>'30 Nov'!D31</f>
-        <v>?</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f>'30 Nov'!B32</f>
-        <v>TBA</v>
+        <v>Adam</v>
       </c>
       <c r="C19" t="str">
         <f>'30 Nov'!C32</f>
-        <v>To Be Determined</v>
-      </c>
-      <c r="D19" s="1" t="str">
+        <v>Finish core game concepts/Begin work on sprite rendering</v>
+      </c>
+      <c r="D19" s="1">
         <f>'30 Nov'!D32</f>
-        <v>?</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f>'30 Nov'!B33</f>
-        <v>TBA</v>
+        <v>Bella</v>
       </c>
       <c r="C20" t="str">
         <f>'30 Nov'!C33</f>
-        <v>To Be Determined</v>
-      </c>
-      <c r="D20" s="1" t="str">
+        <v>Design game balance</v>
+      </c>
+      <c r="D20" s="1">
         <f>'30 Nov'!D33</f>
-        <v>?</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
@@ -2059,7 +2093,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2067,7 +2101,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2075,7 +2109,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -2094,42 +2128,42 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2245,7 +2279,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2253,7 +2287,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2261,7 +2295,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -2280,42 +2314,42 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2431,7 +2465,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2439,7 +2473,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2447,7 +2481,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -2466,42 +2500,42 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2546,30 +2580,30 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2658,7 +2692,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -2675,7 +2709,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -2692,7 +2726,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -2749,10 +2783,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -2766,10 +2800,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -2783,10 +2817,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -2800,10 +2834,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -2817,10 +2851,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -3088,7 +3122,7 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>

--- a/Scrum Status Form SegFault.xlsx
+++ b/Scrum Status Form SegFault.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duncan.adam18\Documents\final\cis_2017-Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234B3762-D6F3-4510-B86A-5DFD01B65958}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E272939A-3414-4306-A3E0-997CF20CCBDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{5969DE55-CD1B-4C6F-87B5-39DBF0EA983E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{5969DE55-CD1B-4C6F-87B5-39DBF0EA983E}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="73">
   <si>
     <t>Scrum Reporting Form</t>
   </si>
@@ -243,6 +243,15 @@
   </si>
   <si>
     <t>Finish core game concepts/Begin work on sprite rendering</t>
+  </si>
+  <si>
+    <t>Finish sprite rendering</t>
+  </si>
+  <si>
+    <t>Finish backgrounds</t>
+  </si>
+  <si>
+    <t>Finish scoring mechanisms</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50F7190-C596-42CC-8496-9A58A8133598}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -1803,10 +1812,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51155316-38BB-46D3-AE3F-BA55423B0250}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,6 +2027,39 @@
       </c>
       <c r="C30" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Scrum Status Form SegFault.xlsx
+++ b/Scrum Status Form SegFault.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duncan.adam18\Documents\final\cis_2017-Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E272939A-3414-4306-A3E0-997CF20CCBDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7DB57DE-6CCA-4486-B87A-75058CF31CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{5969DE55-CD1B-4C6F-87B5-39DBF0EA983E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="4" activeTab="6" xr2:uid="{5969DE55-CD1B-4C6F-87B5-39DBF0EA983E}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="79">
   <si>
     <t>Scrum Reporting Form</t>
   </si>
@@ -47,12 +58,21 @@
     <t>Team Name:</t>
   </si>
   <si>
+    <t>Segmentation Fault</t>
+  </si>
+  <si>
     <t>Team Members:</t>
   </si>
   <si>
+    <t>Adam Duncan, Izsabella Mendez, Jessica Ayala</t>
+  </si>
+  <si>
     <t>Project:</t>
   </si>
   <si>
+    <t>Dino Runner</t>
+  </si>
+  <si>
     <t>Division of Labor</t>
   </si>
   <si>
@@ -62,6 +82,9 @@
     <t>Author</t>
   </si>
   <si>
+    <t>macro module</t>
+  </si>
+  <si>
     <t xml:space="preserve">Plans for </t>
   </si>
   <si>
@@ -71,187 +94,193 @@
     <t>Tasks planned</t>
   </si>
   <si>
+    <t>Prriority</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Decide on Project</t>
+  </si>
+  <si>
+    <t>Identify major parts of the project</t>
+  </si>
+  <si>
+    <t>Set up GitHub account and invite all participants including Professor Cook</t>
+  </si>
+  <si>
+    <t>Story behind your project</t>
+  </si>
+  <si>
+    <t>The Dino Runner game is  a small program made by google that has existed in their chromium browser for some time now. The program is a simple, small game of a dino running across the screen towards an unknown goal; However, while on his perilous journey, the dino comes across many cacti and flying obsticles. The goal is to recreate this game, aswell as put a unique spin on it</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Either DONE or what problem needs to be solved before the task can be completed.</t>
+  </si>
+  <si>
     <t>Due Day</t>
   </si>
   <si>
+    <t>Pygame Display</t>
+  </si>
+  <si>
+    <t>Adam Duncan</t>
+  </si>
+  <si>
+    <t>Collision detection</t>
+  </si>
+  <si>
+    <t>Score Calculation</t>
+  </si>
+  <si>
+    <t>Iszabella Mendez</t>
+  </si>
+  <si>
+    <t>Game Balance</t>
+  </si>
+  <si>
+    <t>Sprite Creation</t>
+  </si>
+  <si>
+    <t>Jessica Ayala</t>
+  </si>
+  <si>
     <t>Tasks Due</t>
   </si>
   <si>
-    <t>Prriority</t>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Break up project into modules (use UML diagrams)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jessica </t>
+  </si>
+  <si>
+    <t>Create Sprites</t>
+  </si>
+  <si>
+    <t>Adam/Iszabella</t>
+  </si>
+  <si>
+    <t>Complete Programming</t>
+  </si>
+  <si>
+    <t>~75% Complete</t>
+  </si>
+  <si>
+    <t>Design placeholder sprites</t>
+  </si>
+  <si>
+    <t>Begin programming</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Design initial sprites</t>
+  </si>
+  <si>
+    <t>Not started</t>
+  </si>
+  <si>
+    <t>Begin developing core game concepts</t>
+  </si>
+  <si>
+    <t>Bella</t>
+  </si>
+  <si>
+    <t>Design game balance</t>
+  </si>
+  <si>
+    <t>~80% Complete</t>
+  </si>
+  <si>
+    <t>POSTPONED TO DEC 5 (Team memeber  MIA)</t>
+  </si>
+  <si>
+    <t>Refine Sprites/Design Backgrounds</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>Finish core game concepts/Begin work on sprite rendering</t>
+  </si>
+  <si>
+    <t>Finish backgrounds</t>
+  </si>
+  <si>
+    <t>Finish sprite rendering</t>
+  </si>
+  <si>
+    <t>Finish scoring mechanisms</t>
+  </si>
+  <si>
+    <t>Remove unecissary code and add doc strings</t>
+  </si>
+  <si>
+    <t>50% Complete</t>
+  </si>
+  <si>
+    <t>Complete presentation</t>
+  </si>
+  <si>
+    <t>75% Complete</t>
+  </si>
+  <si>
+    <t>Izsabella</t>
+  </si>
+  <si>
+    <t>Tasks planned for Project Presentration</t>
+  </si>
+  <si>
+    <t>Reflect</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Final testing of software</t>
+  </si>
+  <si>
+    <t>Finish slide presentation and submit to D2L</t>
+  </si>
+  <si>
+    <t>Do video description of project and submit to D2L</t>
+  </si>
+  <si>
+    <t>Notify Professor Cook that GitHub is ready to download</t>
+  </si>
+  <si>
+    <t>Notify Professor Cook that D2L is ready to peruse also.</t>
+  </si>
+  <si>
+    <t>Final Thoughts on this Process</t>
   </si>
   <si>
     <t>This page is the last Scrum Form due and is  to record your final thoughts on the process</t>
   </si>
   <si>
-    <t>Final Thoughts on this Process</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Either DONE or what problem needs to be solved before the task can be completed.</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Tasks planned for Project Presentration</t>
-  </si>
-  <si>
     <t>Presentaion</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Decide on Project</t>
-  </si>
-  <si>
-    <t>Break up project into modules (use UML diagrams)</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Identify major parts of the project</t>
-  </si>
-  <si>
-    <t>Story behind your project</t>
-  </si>
-  <si>
-    <t>Set up GitHub account and invite all participants including Professor Cook</t>
-  </si>
-  <si>
-    <t>macro module</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>Final testing of software</t>
-  </si>
-  <si>
-    <t>Notify Professor Cook that GitHub is ready to download</t>
-  </si>
-  <si>
-    <t>Do video description of project and submit to D2L</t>
-  </si>
-  <si>
-    <t>Finish slide presentation and submit to D2L</t>
-  </si>
-  <si>
-    <t>Notify Professor Cook that D2L is ready to peruse also.</t>
-  </si>
-  <si>
     <t>Thgere are no tasks left to complete</t>
-  </si>
-  <si>
-    <t>Adam Duncan, Izsabella Mendez, Jessica Ayala</t>
-  </si>
-  <si>
-    <t>Segmentation Fault</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Create Sprites</t>
-  </si>
-  <si>
-    <t>Dino Runner</t>
-  </si>
-  <si>
-    <t>The Dino Runner game is  a small program made by google that has existed in their chromium browser for some time now. The program is a simple, small game of a dino running across the screen towards an unknown goal; However, while on his perilous journey, the dino comes across many cacti and flying obsticles. The goal is to recreate this game, aswell as put a unique spin on it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jessica </t>
-  </si>
-  <si>
-    <t>Complete Programming</t>
-  </si>
-  <si>
-    <t>Adam/Iszabella</t>
-  </si>
-  <si>
-    <t>Pygame Display</t>
-  </si>
-  <si>
-    <t>Collision detection</t>
-  </si>
-  <si>
-    <t>Score Calculation</t>
-  </si>
-  <si>
-    <t>Sprite Creation</t>
-  </si>
-  <si>
-    <t>Game Balance</t>
-  </si>
-  <si>
-    <t>Jessica Ayala</t>
-  </si>
-  <si>
-    <t>Iszabella Mendez</t>
-  </si>
-  <si>
-    <t>Adam Duncan</t>
-  </si>
-  <si>
-    <t>Jessica</t>
-  </si>
-  <si>
-    <t>Bella</t>
-  </si>
-  <si>
-    <t>Design initial sprites</t>
-  </si>
-  <si>
-    <t>Begin developing core game concepts</t>
-  </si>
-  <si>
-    <t>Design game balance</t>
-  </si>
-  <si>
-    <t>Begin programming</t>
-  </si>
-  <si>
-    <t>Design placeholder sprites</t>
-  </si>
-  <si>
-    <t>Not started</t>
-  </si>
-  <si>
-    <t>~75% Complete</t>
-  </si>
-  <si>
-    <t>POSTPONED TO DEC 5 (Team memeber  MIA)</t>
-  </si>
-  <si>
-    <t>~80% Complete</t>
-  </si>
-  <si>
-    <t>Refine Sprites/Design Backgrounds</t>
-  </si>
-  <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Finish core game concepts/Begin work on sprite rendering</t>
-  </si>
-  <si>
-    <t>Finish sprite rendering</t>
-  </si>
-  <si>
-    <t>Finish backgrounds</t>
-  </si>
-  <si>
-    <t>Finish scoring mechanisms</t>
   </si>
 </sst>
 </file>
@@ -261,7 +290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,20 +801,20 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="66.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -793,7 +822,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -802,171 +831,171 @@
         <v>45247</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="B8" s="11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" customHeight="1">
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="B16" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2">
         <f>$C$3</f>
         <v>45247</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="15.75" thickBot="1"/>
+    <row r="22" spans="2:4" ht="30">
       <c r="B22" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
       <c r="C23" s="13"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4">
       <c r="C24" s="13"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4">
       <c r="C25" s="13"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4">
       <c r="C26" s="13"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4">
       <c r="C27" s="13"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="C28" s="13"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4">
       <c r="C29" s="13"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4">
       <c r="C30" s="13"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4">
       <c r="C31" s="13"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4">
       <c r="C32" s="13"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3">
       <c r="C33" s="13"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3">
       <c r="C34" s="13"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3">
       <c r="C35" s="13"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3">
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3">
       <c r="C37" s="13"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3">
       <c r="C38" s="13"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3">
       <c r="C39" s="13"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:3">
       <c r="C40" s="13"/>
     </row>
-    <row r="41" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:3" ht="15.75" thickBot="1">
       <c r="C41" s="14"/>
     </row>
   </sheetData>
@@ -988,7 +1017,7 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
@@ -996,29 +1025,29 @@
     <col min="5" max="5" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="23.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="39" customHeight="1">
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
       <c r="C2" s="2">
         <f>Cover!C3</f>
         <v>45247</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -1030,119 +1059,119 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <f>C2+11</f>
         <v>45258</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="B8" s="11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="B11" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="B12" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="B13" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="B14" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="B16" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2">
         <f>C2</f>
         <v>45247</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>22</v>
       </c>
       <c r="C18" t="str">
         <f>Cover!C18</f>
@@ -1153,10 +1182,10 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" t="str">
         <f>Cover!B19</f>
         <v>All</v>
@@ -1170,12 +1199,12 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" t="str">
         <f>Cover!C20</f>
@@ -1186,43 +1215,43 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
       <c r="D21" s="1"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5">
       <c r="B29" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2">
         <f>$C$3</f>
         <v>45258</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5">
       <c r="B30" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5">
       <c r="B32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
         <v>42</v>
@@ -1231,12 +1260,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D33" s="1">
         <v>3</v>
@@ -1259,7 +1288,7 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
@@ -1267,29 +1296,29 @@
     <col min="5" max="5" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="23.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="39" customHeight="1">
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
       <c r="C2" s="2">
         <f>'17 Nov'!C29</f>
         <v>45258</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -1301,117 +1330,117 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <f>C2+2</f>
         <v>45260</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="B8" s="11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="B11" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="B12" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="B13" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="B14" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="B16" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2">
         <f>C2</f>
         <v>45258</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" t="str">
         <f>'17 Nov'!B31</f>
         <v>All</v>
@@ -1425,101 +1454,101 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" t="str">
         <f>'17 Nov'!B32</f>
         <v xml:space="preserve">Jessica </v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D19">
         <f>'17 Nov'!D32</f>
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" t="str">
         <f>'17 Nov'!B33</f>
         <v>Adam/Iszabella</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D20">
         <f>'17 Nov'!D33</f>
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
       <c r="D21" s="1"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5">
       <c r="B29" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2">
         <f>$C$3</f>
         <v>45260</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5">
       <c r="B30" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D31" s="1">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
       <c r="B32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1539,7 +1568,7 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
@@ -1547,29 +1576,29 @@
     <col min="5" max="5" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="23.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="39" customHeight="1">
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
       <c r="C2" s="2">
         <f>'28 Nov'!C29</f>
         <v>45260</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -1581,117 +1610,117 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <f>C2+5</f>
         <v>45265</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="B8" s="11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="B11" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="B12" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="B13" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="B14" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="B16" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2">
         <f>$C$2</f>
         <v>45260</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" t="str">
         <f>'28 Nov'!B31</f>
         <v>Jessica</v>
@@ -1705,10 +1734,10 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" t="str">
         <f>'28 Nov'!B32</f>
         <v>Adam</v>
@@ -1722,10 +1751,10 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" t="str">
         <f>'28 Nov'!B33</f>
         <v>Bella</v>
@@ -1739,66 +1768,66 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2">
         <f>$C$3</f>
         <v>45265</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5">
       <c r="B30" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
         <v>56</v>
-      </c>
-      <c r="C31" t="s">
-        <v>67</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
       <c r="B32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D32" s="1">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D33" s="1">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1814,11 +1843,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51155316-38BB-46D3-AE3F-BA55423B0250}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
@@ -1826,29 +1855,29 @@
     <col min="5" max="5" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="23.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="39" customHeight="1">
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
       <c r="C2" s="2">
         <f>'30 Nov'!C29</f>
         <v>45265</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -1860,117 +1889,117 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <f>C2+2</f>
         <v>45267</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="B8" s="16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" s="16"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="B11" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="B12" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="B13" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="B14" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="B16" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2">
         <f>C2</f>
         <v>45265</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" t="str">
         <f>'30 Nov'!B31</f>
         <v>Jessica</v>
@@ -1983,8 +2012,11 @@
         <f>'30 Nov'!D31</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" t="str">
         <f>'30 Nov'!B32</f>
         <v>Adam</v>
@@ -1997,8 +2029,11 @@
         <f>'30 Nov'!D32</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" t="str">
         <f>'30 Nov'!B33</f>
         <v>Bella</v>
@@ -2011,55 +2046,67 @@
         <f>'30 Nov'!D33</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2">
         <f>$C$3</f>
         <v>45267</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5">
       <c r="B30" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
       <c r="B32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D33">
         <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2079,7 +2126,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
@@ -2087,29 +2134,29 @@
     <col min="5" max="5" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="23.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="39" customHeight="1">
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
       <c r="C2" s="2">
         <f>'5 Dec'!C29</f>
         <v>45267</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -2121,131 +2168,131 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <f>C2+5</f>
         <v>45272</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="B8" s="16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" s="16"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="B11" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="B12" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="B13" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="B14" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="B16" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2">
         <f>C2</f>
         <v>45267</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16" s="9">
         <v>45266</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
       <c r="B29" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2">
         <f>C3</f>
         <v>45272</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3">
       <c r="B30" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2259,13 +2306,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8735962-B793-4062-AE35-D28323021671}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
@@ -2273,29 +2320,29 @@
     <col min="5" max="5" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="23.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="39" customHeight="1">
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
       <c r="C2" s="2">
         <f>'7 Dec'!C29</f>
         <v>45272</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -2307,131 +2354,206 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <f>C2+2</f>
         <v>45274</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="B8" s="16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" s="16"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="B11" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="B12" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="B13" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="B14" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="B16" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2">
         <f>C2</f>
         <v>45272</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2">
         <f>C3</f>
         <v>45274</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5">
       <c r="B30" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>20</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2451,7 +2573,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" customWidth="1"/>
@@ -2459,29 +2581,29 @@
     <col min="5" max="5" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="23.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="39" customHeight="1">
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
       <c r="C2" s="2">
         <f>'12 Dec'!C29</f>
         <v>45274</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -2493,159 +2615,159 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <f>C2+1</f>
         <v>45275</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="B8" s="16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" s="16"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="B11" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="B12" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="B13" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="B14" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="B16" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2">
         <f>C2</f>
         <v>45274</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
       <c r="B29" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2">
         <f>C3</f>
         <v>45275</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3">
       <c r="B30" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
       <c r="C32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2665,7 +2787,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
@@ -2673,20 +2795,20 @@
     <col min="5" max="5" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="23.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -2697,7 +2819,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="19"/>
     </row>
-    <row r="2" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="39" customHeight="1">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2706,10 +2828,10 @@
         <v>45275</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -2720,21 +2842,21 @@
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <f>C2</f>
         <v>45275</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -2746,12 +2868,12 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -2763,12 +2885,12 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -2780,7 +2902,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -2791,9 +2913,9 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="B8" s="16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" s="16"/>
       <c r="F8" s="10"/>
@@ -2806,12 +2928,12 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -2823,12 +2945,12 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -2840,12 +2962,12 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="B11" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -2857,12 +2979,12 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="B12" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -2874,12 +2996,12 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="B13" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -2891,12 +3013,12 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="B14" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -2908,7 +3030,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -2919,19 +3041,19 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="B16" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2">
         <f>C2</f>
         <v>45275</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -2943,15 +3065,15 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14">
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -2963,7 +3085,7 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14">
       <c r="B18" t="str">
         <f>'14 Dec'!B31</f>
         <v>all</v>
@@ -2985,7 +3107,7 @@
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14">
       <c r="B19">
         <f>'14 Dec'!B32</f>
         <v>0</v>
@@ -3004,7 +3126,7 @@
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14">
       <c r="B20">
         <f>'14 Dec'!B33</f>
         <v>0</v>
@@ -3023,7 +3145,7 @@
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14">
       <c r="B21">
         <f>'14 Dec'!B34</f>
         <v>0</v>
@@ -3042,7 +3164,7 @@
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14">
       <c r="B22">
         <f>'14 Dec'!B35</f>
         <v>0</v>
@@ -3061,7 +3183,7 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14">
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
@@ -3072,7 +3194,7 @@
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14">
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
@@ -3083,7 +3205,7 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14">
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -3094,7 +3216,7 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14">
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -3105,7 +3227,7 @@
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14">
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -3116,7 +3238,7 @@
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14">
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -3127,9 +3249,9 @@
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14">
       <c r="B29" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2">
         <f>C3</f>
@@ -3145,12 +3267,12 @@
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14">
       <c r="B30" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -3162,9 +3284,9 @@
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14">
       <c r="C31" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -3176,7 +3298,7 @@
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14">
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
@@ -3187,7 +3309,7 @@
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
     </row>
-    <row r="33" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:14">
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -3198,7 +3320,7 @@
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
     </row>
-    <row r="34" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:14">
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -3209,7 +3331,7 @@
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:14">
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
